--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -1238,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="1" sqref="D2:D13 D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D2:D13 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5580,7 +5580,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D2:D13 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5774,7 +5774,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D2:D13 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5895,7 +5895,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D2:D13 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8682,7 +8682,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D2:D13 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11329,7 +11329,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="1" sqref="D2:D13 I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13231,7 +13231,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13626,7 +13626,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14272,7 +14272,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14667,7 +14667,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2:D13 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14936,8 +14936,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14973,7 +14973,7 @@
         <v>45672</v>
       </c>
       <c r="D2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
         <v>45701</v>
       </c>
       <c r="D3" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15003,7 +15003,7 @@
         <v>45732</v>
       </c>
       <c r="D4" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15018,7 +15018,7 @@
         <v>45761</v>
       </c>
       <c r="D5" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15033,7 +15033,7 @@
         <v>45795</v>
       </c>
       <c r="D6" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15048,7 +15048,7 @@
         <v>45826</v>
       </c>
       <c r="D7" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
         <v>45855</v>
       </c>
       <c r="D8" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15078,7 +15078,7 @@
         <v>45886</v>
       </c>
       <c r="D9" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15093,7 +15093,7 @@
         <v>45915</v>
       </c>
       <c r="D10" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
+        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15108,7 +15108,7 @@
         <v>45945</v>
       </c>
       <c r="D11" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15123,7 +15123,7 @@
         <v>45973</v>
       </c>
       <c r="D12" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
+        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -15138,7 +15138,7 @@
         <v>46002</v>
       </c>
       <c r="D13" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
+        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -381,10 +381,10 @@
     <t xml:space="preserve">DEV.Michael</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -1238,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="1" sqref="D2:D13 D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D2:D13 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5580,7 +5580,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D2:D13 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5774,7 +5774,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D2:D13 H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5895,7 +5895,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D2:D13 E1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8682,7 +8682,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D2:D13 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11329,7 +11329,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="1" sqref="D2:D13 I5"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13231,7 +13231,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13626,7 +13626,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14272,7 +14272,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14667,7 +14667,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2:D13 F2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14936,8 +14936,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -325,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="182">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -765,40 +771,112 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
-    <t xml:space="preserve">Is T:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is T:end OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:end OK?</t>
-  </si>
-  <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
@@ -811,7 +889,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -859,8 +937,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,6 +980,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
         <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1042,10 +1133,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,7 +1204,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1238,7 +1329,7 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1524,7 +1615,7 @@
   </sheetPr>
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1594,7 +1685,7 @@
       <c r="D3" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1617,7 +1708,7 @@
       <c r="D4" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1640,7 +1731,7 @@
       <c r="D5" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1663,7 +1754,7 @@
       <c r="D6" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1686,7 +1777,7 @@
       <c r="D7" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1709,7 +1800,7 @@
       <c r="D8" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1732,7 +1823,7 @@
       <c r="D9" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1755,7 +1846,7 @@
       <c r="D10" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1778,7 +1869,7 @@
       <c r="D11" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1801,7 +1892,7 @@
       <c r="D12" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1824,7 +1915,7 @@
       <c r="D13" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1847,7 +1938,7 @@
       <c r="D14" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1870,7 +1961,7 @@
       <c r="D15" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A15) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1893,7 +1984,7 @@
       <c r="D16" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A16) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1916,7 +2007,7 @@
       <c r="D17" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A17) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1939,7 +2030,7 @@
       <c r="D18" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A18) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1962,7 +2053,7 @@
       <c r="D19" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A19) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1985,7 +2076,7 @@
       <c r="D20" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A20) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2008,7 +2099,7 @@
       <c r="D21" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A21) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2031,7 +2122,7 @@
       <c r="D22" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A22) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2054,7 +2145,7 @@
       <c r="D23" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A23) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2077,7 +2168,7 @@
       <c r="D24" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A24) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2100,7 +2191,7 @@
       <c r="D25" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A25) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2123,7 +2214,7 @@
       <c r="D26" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A26) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2146,7 +2237,7 @@
       <c r="D27" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A27) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2169,7 +2260,7 @@
       <c r="D28" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A28) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2192,7 +2283,7 @@
       <c r="D29" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A29) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2215,7 +2306,7 @@
       <c r="D30" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A30) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2238,7 +2329,7 @@
       <c r="D31" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A31) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2261,7 +2352,7 @@
       <c r="D32" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A32) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2284,7 +2375,7 @@
       <c r="D33" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A33) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2307,7 +2398,7 @@
       <c r="D34" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A34) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2330,7 +2421,7 @@
       <c r="D35" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A35) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2353,7 +2444,7 @@
       <c r="D36" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A36) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2375,7 +2466,7 @@
       <c r="D37" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A37) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2397,7 +2488,7 @@
       <c r="D38" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A38) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2419,7 +2510,7 @@
       <c r="D39" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A39) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2441,7 +2532,7 @@
       <c r="D40" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A40) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2463,7 +2554,7 @@
       <c r="D41" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A41) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2485,7 +2576,7 @@
       <c r="D42" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A42) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2507,7 +2598,7 @@
       <c r="D43" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A43) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2529,7 +2620,7 @@
       <c r="D44" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A44) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2551,7 +2642,7 @@
       <c r="D45" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A45) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2573,7 +2664,7 @@
       <c r="D46" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A46) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2595,7 +2686,7 @@
       <c r="D47" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A47) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2617,7 +2708,7 @@
       <c r="D48" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A48) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2639,7 +2730,7 @@
       <c r="D49" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A49) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2661,7 +2752,7 @@
       <c r="D50" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A50) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2683,7 +2774,7 @@
       <c r="D51" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A51) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2705,7 +2796,7 @@
       <c r="D52" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A52) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2727,7 +2818,7 @@
       <c r="D53" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A53) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2749,7 +2840,7 @@
       <c r="D54" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A54) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2771,7 +2862,7 @@
       <c r="D55" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A55) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2793,7 +2884,7 @@
       <c r="D56" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A56) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2815,7 +2906,7 @@
       <c r="D57" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A57) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2837,7 +2928,7 @@
       <c r="D58" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A58) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2859,7 +2950,7 @@
       <c r="D59" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A59) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2881,7 +2972,7 @@
       <c r="D60" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A60) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2903,7 +2994,7 @@
       <c r="D61" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A61) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2925,7 +3016,7 @@
       <c r="D62" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A62) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2947,7 +3038,7 @@
       <c r="D63" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A63) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2969,7 +3060,7 @@
       <c r="D64" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A64) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2991,7 +3082,7 @@
       <c r="D65" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A65) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3013,7 +3104,7 @@
       <c r="D66" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A66) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3035,7 +3126,7 @@
       <c r="D67" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A67) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3057,7 +3148,7 @@
       <c r="D68" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A68) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3079,7 +3170,7 @@
       <c r="D69" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A69) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3101,7 +3192,7 @@
       <c r="D70" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A70) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3123,7 +3214,7 @@
       <c r="D71" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A71) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3145,7 +3236,7 @@
       <c r="D72" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A72) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3167,7 +3258,7 @@
       <c r="D73" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A73) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3189,7 +3280,7 @@
       <c r="D74" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A74) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3211,7 +3302,7 @@
       <c r="D75" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A75) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3233,7 +3324,7 @@
       <c r="D76" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A76) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3255,7 +3346,7 @@
       <c r="D77" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A77) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3277,7 +3368,7 @@
       <c r="D78" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A78) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3299,7 +3390,7 @@
       <c r="D79" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A79) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3321,7 +3412,7 @@
       <c r="D80" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A80) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3343,7 +3434,7 @@
       <c r="D81" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A81) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3365,7 +3456,7 @@
       <c r="D82" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A82) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3387,7 +3478,7 @@
       <c r="D83" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A83) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3409,7 +3500,7 @@
       <c r="D84" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A84) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3431,7 +3522,7 @@
       <c r="D85" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A85) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3453,7 +3544,7 @@
       <c r="D86" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A86) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3475,7 +3566,7 @@
       <c r="D87" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A87) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3497,7 +3588,7 @@
       <c r="D88" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A88) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3519,7 +3610,7 @@
       <c r="D89" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A89) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3541,7 +3632,7 @@
       <c r="D90" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A90) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3563,7 +3654,7 @@
       <c r="D91" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A91) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3585,7 +3676,7 @@
       <c r="D92" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A92) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3607,7 +3698,7 @@
       <c r="D93" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E93" s="2" t="n">
+      <c r="E93" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A93) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3629,7 +3720,7 @@
       <c r="D94" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A94) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3651,7 +3742,7 @@
       <c r="D95" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A95) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3673,7 +3764,7 @@
       <c r="D96" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A96) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3695,7 +3786,7 @@
       <c r="D97" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A97) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3717,7 +3808,7 @@
       <c r="D98" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A98) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3739,7 +3830,7 @@
       <c r="D99" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A99) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3761,7 +3852,7 @@
       <c r="D100" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A100) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3783,7 +3874,7 @@
       <c r="D101" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A101) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3805,7 +3896,7 @@
       <c r="D102" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A102) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3827,7 +3918,7 @@
       <c r="D103" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A103) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3849,7 +3940,7 @@
       <c r="D104" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="E104" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A104) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3871,7 +3962,7 @@
       <c r="D105" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="E105" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A105) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3893,7 +3984,7 @@
       <c r="D106" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="E106" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A106) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3915,7 +4006,7 @@
       <c r="D107" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="E107" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A107) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3937,7 +4028,7 @@
       <c r="D108" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A108) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3959,7 +4050,7 @@
       <c r="D109" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="E109" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A109) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3981,7 +4072,7 @@
       <c r="D110" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A110) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4003,7 +4094,7 @@
       <c r="D111" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="E111" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A111) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4025,7 +4116,7 @@
       <c r="D112" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="E112" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A112) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4047,7 +4138,7 @@
       <c r="D113" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="E113" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A113) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4069,7 +4160,7 @@
       <c r="D114" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A114) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4091,7 +4182,7 @@
       <c r="D115" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A115) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4113,7 +4204,7 @@
       <c r="D116" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A116) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4135,7 +4226,7 @@
       <c r="D117" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A117) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4157,7 +4248,7 @@
       <c r="D118" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A118) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4179,7 +4270,7 @@
       <c r="D119" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A119) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4201,7 +4292,7 @@
       <c r="D120" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E120" s="2" t="n">
+      <c r="E120" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A120) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4223,7 +4314,7 @@
       <c r="D121" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A121) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4245,7 +4336,7 @@
       <c r="D122" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A122) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4267,7 +4358,7 @@
       <c r="D123" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A123) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4289,7 +4380,7 @@
       <c r="D124" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A124) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4311,7 +4402,7 @@
       <c r="D125" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A125) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4333,7 +4424,7 @@
       <c r="D126" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="E126" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A126) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4355,7 +4446,7 @@
       <c r="D127" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A127) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4377,7 +4468,7 @@
       <c r="D128" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A128) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4399,7 +4490,7 @@
       <c r="D129" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="E129" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A129) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4421,7 +4512,7 @@
       <c r="D130" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="E130" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A130) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4443,7 +4534,7 @@
       <c r="D131" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A131) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4465,7 +4556,7 @@
       <c r="D132" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A132) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4487,7 +4578,7 @@
       <c r="D133" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A133) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4509,7 +4600,7 @@
       <c r="D134" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="E134" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A134) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4531,7 +4622,7 @@
       <c r="D135" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E135" s="2" t="n">
+      <c r="E135" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A135) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4553,7 +4644,7 @@
       <c r="D136" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="E136" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A136) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4576,7 +4667,7 @@
       <c r="D137" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="E137" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A137) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4599,7 +4690,7 @@
       <c r="D138" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E138" s="2" t="n">
+      <c r="E138" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A138) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4622,7 +4713,7 @@
       <c r="D139" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="E139" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A139) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4645,7 +4736,7 @@
       <c r="D140" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E140" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A140) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4668,7 +4759,7 @@
       <c r="D141" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A141) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4691,7 +4782,7 @@
       <c r="D142" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="E142" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A142) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4714,7 +4805,7 @@
       <c r="D143" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E143" s="2" t="n">
+      <c r="E143" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A143) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4737,7 +4828,7 @@
       <c r="D144" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="E144" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A144) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4759,7 +4850,7 @@
       <c r="D145" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A145) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4781,7 +4872,7 @@
       <c r="D146" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="E146" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A146) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4803,7 +4894,7 @@
       <c r="D147" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E147" s="2" t="n">
+      <c r="E147" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A147) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4825,7 +4916,7 @@
       <c r="D148" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E148" s="2" t="n">
+      <c r="E148" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A148) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4847,7 +4938,7 @@
       <c r="D149" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E149" s="2" t="n">
+      <c r="E149" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A149) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4869,7 +4960,7 @@
       <c r="D150" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E150" s="2" t="n">
+      <c r="E150" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A150) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4891,7 +4982,7 @@
       <c r="D151" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E151" s="2" t="n">
+      <c r="E151" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A151) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4913,7 +5004,7 @@
       <c r="D152" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E152" s="2" t="n">
+      <c r="E152" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A152) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4935,7 +5026,7 @@
       <c r="D153" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E153" s="2" t="n">
+      <c r="E153" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A153) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4957,7 +5048,7 @@
       <c r="D154" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E154" s="2" t="n">
+      <c r="E154" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A154) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4979,7 +5070,7 @@
       <c r="D155" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E155" s="2" t="n">
+      <c r="E155" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A155) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5001,7 +5092,7 @@
       <c r="D156" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E156" s="2" t="n">
+      <c r="E156" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A156) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5023,7 +5114,7 @@
       <c r="D157" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E157" s="2" t="n">
+      <c r="E157" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A157) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5045,7 +5136,7 @@
       <c r="D158" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E158" s="2" t="n">
+      <c r="E158" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A158) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5067,7 +5158,7 @@
       <c r="D159" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E159" s="2" t="n">
+      <c r="E159" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A159) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5089,7 +5180,7 @@
       <c r="D160" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E160" s="2" t="n">
+      <c r="E160" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A160) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5111,7 +5202,7 @@
       <c r="D161" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E161" s="2" t="n">
+      <c r="E161" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A161) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5133,7 +5224,7 @@
       <c r="D162" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E162" s="2" t="n">
+      <c r="E162" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A162) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5155,7 +5246,7 @@
       <c r="D163" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E163" s="2" t="n">
+      <c r="E163" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A163) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5177,7 +5268,7 @@
       <c r="D164" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E164" s="2" t="n">
+      <c r="E164" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A164) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5199,7 +5290,7 @@
       <c r="D165" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E165" s="2" t="n">
+      <c r="E165" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A165) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5221,7 +5312,7 @@
       <c r="D166" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E166" s="2" t="n">
+      <c r="E166" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A166) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5243,7 +5334,7 @@
       <c r="D167" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E167" s="2" t="n">
+      <c r="E167" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A167) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5265,7 +5356,7 @@
       <c r="D168" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E168" s="2" t="n">
+      <c r="E168" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A168) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5287,7 +5378,7 @@
       <c r="D169" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E169" s="2" t="n">
+      <c r="E169" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A169) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5309,7 +5400,7 @@
       <c r="D170" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E170" s="2" t="n">
+      <c r="E170" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A170) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5331,7 +5422,7 @@
       <c r="D171" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E171" s="2" t="n">
+      <c r="E171" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A171) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5353,7 +5444,7 @@
       <c r="D172" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E172" s="2" t="n">
+      <c r="E172" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A172) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5375,7 +5466,7 @@
       <c r="D173" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E173" s="2" t="n">
+      <c r="E173" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A173) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5397,7 +5488,7 @@
       <c r="D174" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E174" s="2" t="n">
+      <c r="E174" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A174) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5419,7 +5510,7 @@
       <c r="D175" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E175" s="2" t="n">
+      <c r="E175" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A175) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5441,7 +5532,7 @@
       <c r="D176" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E176" s="2" t="n">
+      <c r="E176" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A176) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5463,7 +5554,7 @@
       <c r="D177" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E177" s="2" t="n">
+      <c r="E177" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A177) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5485,7 +5576,7 @@
       <c r="D178" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E178" s="2" t="n">
+      <c r="E178" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A178) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5507,7 +5598,7 @@
       <c r="D179" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E179" s="2" t="n">
+      <c r="E179" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A179) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5529,7 +5620,7 @@
       <c r="D180" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E180" s="2" t="n">
+      <c r="E180" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A180) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5551,7 +5642,7 @@
       <c r="D181" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E181" s="2" t="n">
+      <c r="E181" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A181) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5579,7 +5670,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5602,7 +5693,7 @@
       <c r="A2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
@@ -5611,7 +5702,7 @@
       <c r="A3" s="6" t="n">
         <v>45767</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
@@ -5620,7 +5711,7 @@
       <c r="A4" s="6" t="n">
         <v>45778</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
         <v>1</v>
       </c>
@@ -5771,22 +5862,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="13.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5799,35 +5886,8 @@
       <c r="C1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,43 +5897,551 @@
       <c r="B2" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>46053</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="G2" s="12" t="n">
-        <v>46053</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="27" t="n">
+      <c r="C2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="27" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="28" t="n">
-        <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="29" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
-        <v>1</v>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="29" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="29" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="29" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="29" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="29" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="29" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5894,7 +6462,7 @@
   </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5979,7 +6547,7 @@
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
         <v>1</v>
       </c>
@@ -6005,7 +6573,7 @@
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
         <v>1</v>
       </c>
@@ -6031,7 +6599,7 @@
         <f aca="false">C5&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
         <v>1</v>
       </c>
@@ -6057,7 +6625,7 @@
         <f aca="false">C6&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
         <v>1</v>
       </c>
@@ -6083,7 +6651,7 @@
         <f aca="false">C7&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
         <v>1</v>
       </c>
@@ -6109,7 +6677,7 @@
         <f aca="false">C8&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
         <v>1</v>
       </c>
@@ -6135,7 +6703,7 @@
         <f aca="false">C9&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
         <v>1</v>
       </c>
@@ -6161,7 +6729,7 @@
         <f aca="false">C10&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
         <v>1</v>
       </c>
@@ -6187,7 +6755,7 @@
         <f aca="false">C11&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
         <v>1</v>
       </c>
@@ -6213,7 +6781,7 @@
         <f aca="false">C12&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
         <v>1</v>
       </c>
@@ -6239,7 +6807,7 @@
         <f aca="false">C13&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
         <v>1</v>
       </c>
@@ -6265,7 +6833,7 @@
         <f aca="false">C14&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B14), ISNUMBER(C14), B14&lt;=C14)</f>
         <v>1</v>
       </c>
@@ -6291,7 +6859,7 @@
         <f aca="false">C15&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B15), ISNUMBER(C15), B15&lt;=C15)</f>
         <v>1</v>
       </c>
@@ -6317,7 +6885,7 @@
         <f aca="false">C16&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B16), ISNUMBER(C16), B16&lt;=C16)</f>
         <v>1</v>
       </c>
@@ -6343,7 +6911,7 @@
         <f aca="false">C17&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B17), ISNUMBER(C17), B17&lt;=C17)</f>
         <v>1</v>
       </c>
@@ -6369,7 +6937,7 @@
         <f aca="false">C18&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B18), ISNUMBER(C18), B18&lt;=C18)</f>
         <v>1</v>
       </c>
@@ -6395,7 +6963,7 @@
         <f aca="false">C19&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B19), ISNUMBER(C19), B19&lt;=C19)</f>
         <v>1</v>
       </c>
@@ -6421,7 +6989,7 @@
         <f aca="false">C20&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B20), ISNUMBER(C20), B20&lt;=C20)</f>
         <v>1</v>
       </c>
@@ -6447,7 +7015,7 @@
         <f aca="false">C21&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B21), ISNUMBER(C21), B21&lt;=C21)</f>
         <v>1</v>
       </c>
@@ -6473,7 +7041,7 @@
         <f aca="false">C22&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B22), ISNUMBER(C22), B22&lt;=C22)</f>
         <v>1</v>
       </c>
@@ -6499,7 +7067,7 @@
         <f aca="false">C23&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B23), ISNUMBER(C23), B23&lt;=C23)</f>
         <v>1</v>
       </c>
@@ -6525,7 +7093,7 @@
         <f aca="false">C24&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B24), ISNUMBER(C24), B24&lt;=C24)</f>
         <v>1</v>
       </c>
@@ -6551,7 +7119,7 @@
         <f aca="false">C25&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B25), ISNUMBER(C25), B25&lt;=C25)</f>
         <v>1</v>
       </c>
@@ -6577,7 +7145,7 @@
         <f aca="false">C26&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B26), ISNUMBER(C26), B26&lt;=C26)</f>
         <v>1</v>
       </c>
@@ -6603,7 +7171,7 @@
         <f aca="false">C27&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B27), ISNUMBER(C27), B27&lt;=C27)</f>
         <v>1</v>
       </c>
@@ -6629,7 +7197,7 @@
         <f aca="false">C28&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B28), ISNUMBER(C28), B28&lt;=C28)</f>
         <v>1</v>
       </c>
@@ -6655,7 +7223,7 @@
         <f aca="false">C29&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B29), ISNUMBER(C29), B29&lt;=C29)</f>
         <v>1</v>
       </c>
@@ -6681,7 +7249,7 @@
         <f aca="false">C30&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B30), ISNUMBER(C30), B30&lt;=C30)</f>
         <v>1</v>
       </c>
@@ -6707,7 +7275,7 @@
         <f aca="false">C31&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B31), ISNUMBER(C31), B31&lt;=C31)</f>
         <v>1</v>
       </c>
@@ -6733,7 +7301,7 @@
         <f aca="false">C32&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B32), ISNUMBER(C32), B32&lt;=C32)</f>
         <v>1</v>
       </c>
@@ -6759,7 +7327,7 @@
         <f aca="false">C33&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B33), ISNUMBER(C33), B33&lt;=C33)</f>
         <v>1</v>
       </c>
@@ -6785,7 +7353,7 @@
         <f aca="false">C34&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B34), ISNUMBER(C34), B34&lt;=C34)</f>
         <v>1</v>
       </c>
@@ -6811,7 +7379,7 @@
         <f aca="false">C35&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B35), ISNUMBER(C35), B35&lt;=C35)</f>
         <v>1</v>
       </c>
@@ -6837,7 +7405,7 @@
         <f aca="false">C36&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B36), ISNUMBER(C36), B36&lt;=C36)</f>
         <v>1</v>
       </c>
@@ -6863,7 +7431,7 @@
         <f aca="false">C37&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B37), ISNUMBER(C37), B37&lt;=C37)</f>
         <v>1</v>
       </c>
@@ -6889,7 +7457,7 @@
         <f aca="false">C38&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B38), ISNUMBER(C38), B38&lt;=C38)</f>
         <v>1</v>
       </c>
@@ -6915,7 +7483,7 @@
         <f aca="false">C39&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B39), ISNUMBER(C39), B39&lt;=C39)</f>
         <v>1</v>
       </c>
@@ -6941,7 +7509,7 @@
         <f aca="false">C40&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B40), ISNUMBER(C40), B40&lt;=C40)</f>
         <v>1</v>
       </c>
@@ -6967,7 +7535,7 @@
         <f aca="false">C41&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B41), ISNUMBER(C41), B41&lt;=C41)</f>
         <v>1</v>
       </c>
@@ -6993,7 +7561,7 @@
         <f aca="false">C42&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B42), ISNUMBER(C42), B42&lt;=C42)</f>
         <v>1</v>
       </c>
@@ -7019,7 +7587,7 @@
         <f aca="false">C43&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B43), ISNUMBER(C43), B43&lt;=C43)</f>
         <v>1</v>
       </c>
@@ -7045,7 +7613,7 @@
         <f aca="false">C44&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B44), ISNUMBER(C44), B44&lt;=C44)</f>
         <v>1</v>
       </c>
@@ -7071,7 +7639,7 @@
         <f aca="false">C45&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B45), ISNUMBER(C45), B45&lt;=C45)</f>
         <v>1</v>
       </c>
@@ -7097,7 +7665,7 @@
         <f aca="false">C46&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B46), ISNUMBER(C46), B46&lt;=C46)</f>
         <v>1</v>
       </c>
@@ -7123,7 +7691,7 @@
         <f aca="false">C47&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B47), ISNUMBER(C47), B47&lt;=C47)</f>
         <v>1</v>
       </c>
@@ -7149,7 +7717,7 @@
         <f aca="false">C48&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B48), ISNUMBER(C48), B48&lt;=C48)</f>
         <v>1</v>
       </c>
@@ -7175,7 +7743,7 @@
         <f aca="false">C49&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B49), ISNUMBER(C49), B49&lt;=C49)</f>
         <v>1</v>
       </c>
@@ -7201,7 +7769,7 @@
         <f aca="false">C50&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B50), ISNUMBER(C50), B50&lt;=C50)</f>
         <v>1</v>
       </c>
@@ -7227,7 +7795,7 @@
         <f aca="false">C51&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B51), ISNUMBER(C51), B51&lt;=C51)</f>
         <v>1</v>
       </c>
@@ -7253,7 +7821,7 @@
         <f aca="false">C52&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B52), ISNUMBER(C52), B52&lt;=C52)</f>
         <v>1</v>
       </c>
@@ -7279,7 +7847,7 @@
         <f aca="false">C53&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B53), ISNUMBER(C53), B53&lt;=C53)</f>
         <v>1</v>
       </c>
@@ -7305,7 +7873,7 @@
         <f aca="false">C54&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B54), ISNUMBER(C54), B54&lt;=C54)</f>
         <v>1</v>
       </c>
@@ -7331,7 +7899,7 @@
         <f aca="false">C55&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B55), ISNUMBER(C55), B55&lt;=C55)</f>
         <v>1</v>
       </c>
@@ -7357,7 +7925,7 @@
         <f aca="false">C56&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B56), ISNUMBER(C56), B56&lt;=C56)</f>
         <v>1</v>
       </c>
@@ -7383,7 +7951,7 @@
         <f aca="false">C57&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B57), ISNUMBER(C57), B57&lt;=C57)</f>
         <v>1</v>
       </c>
@@ -7409,7 +7977,7 @@
         <f aca="false">C58&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B58), ISNUMBER(C58), B58&lt;=C58)</f>
         <v>1</v>
       </c>
@@ -7435,7 +8003,7 @@
         <f aca="false">C59&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B59), ISNUMBER(C59), B59&lt;=C59)</f>
         <v>1</v>
       </c>
@@ -7461,7 +8029,7 @@
         <f aca="false">C60&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B60), ISNUMBER(C60), B60&lt;=C60)</f>
         <v>1</v>
       </c>
@@ -7487,7 +8055,7 @@
         <f aca="false">C61&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G61" s="2" t="n">
+      <c r="G61" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B61), ISNUMBER(C61), B61&lt;=C61)</f>
         <v>1</v>
       </c>
@@ -7513,7 +8081,7 @@
         <f aca="false">C62&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B62), ISNUMBER(C62), B62&lt;=C62)</f>
         <v>1</v>
       </c>
@@ -7539,7 +8107,7 @@
         <f aca="false">C63&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B63), ISNUMBER(C63), B63&lt;=C63)</f>
         <v>1</v>
       </c>
@@ -7565,7 +8133,7 @@
         <f aca="false">C64&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B64), ISNUMBER(C64), B64&lt;=C64)</f>
         <v>1</v>
       </c>
@@ -7591,7 +8159,7 @@
         <f aca="false">C65&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B65), ISNUMBER(C65), B65&lt;=C65)</f>
         <v>1</v>
       </c>
@@ -7617,7 +8185,7 @@
         <f aca="false">C66&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B66), ISNUMBER(C66), B66&lt;=C66)</f>
         <v>1</v>
       </c>
@@ -7643,7 +8211,7 @@
         <f aca="false">C67&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B67), ISNUMBER(C67), B67&lt;=C67)</f>
         <v>1</v>
       </c>
@@ -7669,7 +8237,7 @@
         <f aca="false">C68&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B68), ISNUMBER(C68), B68&lt;=C68)</f>
         <v>1</v>
       </c>
@@ -7695,7 +8263,7 @@
         <f aca="false">C69&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B69), ISNUMBER(C69), B69&lt;=C69)</f>
         <v>1</v>
       </c>
@@ -7721,7 +8289,7 @@
         <f aca="false">C70&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B70), ISNUMBER(C70), B70&lt;=C70)</f>
         <v>1</v>
       </c>
@@ -7747,7 +8315,7 @@
         <f aca="false">C71&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G71" s="2" t="n">
+      <c r="G71" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B71), ISNUMBER(C71), B71&lt;=C71)</f>
         <v>1</v>
       </c>
@@ -7773,7 +8341,7 @@
         <f aca="false">C72&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G72" s="2" t="n">
+      <c r="G72" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B72), ISNUMBER(C72), B72&lt;=C72)</f>
         <v>1</v>
       </c>
@@ -7799,7 +8367,7 @@
         <f aca="false">C73&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G73" s="2" t="n">
+      <c r="G73" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B73), ISNUMBER(C73), B73&lt;=C73)</f>
         <v>1</v>
       </c>
@@ -7825,7 +8393,7 @@
         <f aca="false">C74&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B74), ISNUMBER(C74), B74&lt;=C74)</f>
         <v>1</v>
       </c>
@@ -7851,7 +8419,7 @@
         <f aca="false">C75&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G75" s="2" t="n">
+      <c r="G75" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B75), ISNUMBER(C75), B75&lt;=C75)</f>
         <v>1</v>
       </c>
@@ -7877,7 +8445,7 @@
         <f aca="false">C76&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G76" s="2" t="n">
+      <c r="G76" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B76), ISNUMBER(C76), B76&lt;=C76)</f>
         <v>1</v>
       </c>
@@ -7903,7 +8471,7 @@
         <f aca="false">C77&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G77" s="2" t="n">
+      <c r="G77" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B77), ISNUMBER(C77), B77&lt;=C77)</f>
         <v>1</v>
       </c>
@@ -7929,7 +8497,7 @@
         <f aca="false">C78&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="G78" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B78), ISNUMBER(C78), B78&lt;=C78)</f>
         <v>1</v>
       </c>
@@ -7955,7 +8523,7 @@
         <f aca="false">C79&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G79" s="2" t="n">
+      <c r="G79" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B79), ISNUMBER(C79), B79&lt;=C79)</f>
         <v>1</v>
       </c>
@@ -7981,7 +8549,7 @@
         <f aca="false">C80&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G80" s="2" t="n">
+      <c r="G80" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B80), ISNUMBER(C80), B80&lt;=C80)</f>
         <v>1</v>
       </c>
@@ -8007,7 +8575,7 @@
         <f aca="false">C81&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G81" s="2" t="n">
+      <c r="G81" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B81), ISNUMBER(C81), B81&lt;=C81)</f>
         <v>1</v>
       </c>
@@ -8033,7 +8601,7 @@
         <f aca="false">C82&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G82" s="2" t="n">
+      <c r="G82" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B82), ISNUMBER(C82), B82&lt;=C82)</f>
         <v>1</v>
       </c>
@@ -8059,7 +8627,7 @@
         <f aca="false">C83&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G83" s="2" t="n">
+      <c r="G83" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B83), ISNUMBER(C83), B83&lt;=C83)</f>
         <v>1</v>
       </c>
@@ -8085,7 +8653,7 @@
         <f aca="false">C84&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G84" s="2" t="n">
+      <c r="G84" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B84), ISNUMBER(C84), B84&lt;=C84)</f>
         <v>1</v>
       </c>
@@ -8111,7 +8679,7 @@
         <f aca="false">C85&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G85" s="2" t="n">
+      <c r="G85" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B85), ISNUMBER(C85), B85&lt;=C85)</f>
         <v>1</v>
       </c>
@@ -8137,7 +8705,7 @@
         <f aca="false">C86&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G86" s="2" t="n">
+      <c r="G86" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B86), ISNUMBER(C86), B86&lt;=C86)</f>
         <v>1</v>
       </c>
@@ -8163,7 +8731,7 @@
         <f aca="false">C87&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G87" s="2" t="n">
+      <c r="G87" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B87), ISNUMBER(C87), B87&lt;=C87)</f>
         <v>1</v>
       </c>
@@ -8189,7 +8757,7 @@
         <f aca="false">C88&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G88" s="2" t="n">
+      <c r="G88" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B88), ISNUMBER(C88), B88&lt;=C88)</f>
         <v>1</v>
       </c>
@@ -8215,7 +8783,7 @@
         <f aca="false">C89&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G89" s="2" t="n">
+      <c r="G89" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B89), ISNUMBER(C89), B89&lt;=C89)</f>
         <v>1</v>
       </c>
@@ -8241,7 +8809,7 @@
         <f aca="false">C90&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G90" s="2" t="n">
+      <c r="G90" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B90), ISNUMBER(C90), B90&lt;=C90)</f>
         <v>1</v>
       </c>
@@ -8267,7 +8835,7 @@
         <f aca="false">C91&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G91" s="2" t="n">
+      <c r="G91" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B91), ISNUMBER(C91), B91&lt;=C91)</f>
         <v>1</v>
       </c>
@@ -8293,7 +8861,7 @@
         <f aca="false">C92&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G92" s="2" t="n">
+      <c r="G92" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B92), ISNUMBER(C92), B92&lt;=C92)</f>
         <v>1</v>
       </c>
@@ -8319,7 +8887,7 @@
         <f aca="false">C93&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G93" s="2" t="n">
+      <c r="G93" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B93), ISNUMBER(C93), B93&lt;=C93)</f>
         <v>1</v>
       </c>
@@ -8345,7 +8913,7 @@
         <f aca="false">C94&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G94" s="2" t="n">
+      <c r="G94" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B94), ISNUMBER(C94), B94&lt;=C94)</f>
         <v>1</v>
       </c>
@@ -8371,7 +8939,7 @@
         <f aca="false">C95&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G95" s="2" t="n">
+      <c r="G95" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B95), ISNUMBER(C95), B95&lt;=C95)</f>
         <v>1</v>
       </c>
@@ -8397,7 +8965,7 @@
         <f aca="false">C96&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G96" s="2" t="n">
+      <c r="G96" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B96), ISNUMBER(C96), B96&lt;=C96)</f>
         <v>1</v>
       </c>
@@ -8423,7 +8991,7 @@
         <f aca="false">C97&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G97" s="2" t="n">
+      <c r="G97" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B97), ISNUMBER(C97), B97&lt;=C97)</f>
         <v>1</v>
       </c>
@@ -8449,7 +9017,7 @@
         <f aca="false">C98&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G98" s="2" t="n">
+      <c r="G98" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B98), ISNUMBER(C98), B98&lt;=C98)</f>
         <v>1</v>
       </c>
@@ -8475,7 +9043,7 @@
         <f aca="false">C99&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G99" s="2" t="n">
+      <c r="G99" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B99), ISNUMBER(C99), B99&lt;=C99)</f>
         <v>1</v>
       </c>
@@ -8501,7 +9069,7 @@
         <f aca="false">C100&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G100" s="2" t="n">
+      <c r="G100" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B100), ISNUMBER(C100), B100&lt;=C100)</f>
         <v>1</v>
       </c>
@@ -8527,7 +9095,7 @@
         <f aca="false">C101&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G101" s="2" t="n">
+      <c r="G101" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B101), ISNUMBER(C101), B101&lt;=C101)</f>
         <v>1</v>
       </c>
@@ -8553,7 +9121,7 @@
         <f aca="false">C102&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G102" s="2" t="n">
+      <c r="G102" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B102), ISNUMBER(C102), B102&lt;=C102)</f>
         <v>1</v>
       </c>
@@ -8579,7 +9147,7 @@
         <f aca="false">C103&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G103" s="2" t="n">
+      <c r="G103" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B103), ISNUMBER(C103), B103&lt;=C103)</f>
         <v>1</v>
       </c>
@@ -8605,7 +9173,7 @@
         <f aca="false">C104&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G104" s="2" t="n">
+      <c r="G104" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B104), ISNUMBER(C104), B104&lt;=C104)</f>
         <v>1</v>
       </c>
@@ -8631,7 +9199,7 @@
         <f aca="false">C105&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G105" s="2" t="n">
+      <c r="G105" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B105), ISNUMBER(C105), B105&lt;=C105)</f>
         <v>1</v>
       </c>
@@ -8657,7 +9225,7 @@
         <f aca="false">C106&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G106" s="2" t="n">
+      <c r="G106" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B106), ISNUMBER(C106), B106&lt;=C106)</f>
         <v>1</v>
       </c>
@@ -8681,7 +9249,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -11328,7 +11896,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -11423,7 +11991,7 @@
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="n">
+      <c r="G3" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11431,7 +11999,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B3)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I3" s="15" t="n">
+      <c r="I3" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
         <v>1</v>
       </c>
@@ -11455,7 +12023,7 @@
       <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11463,7 +12031,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B4)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
         <v>1</v>
       </c>
@@ -11487,7 +12055,7 @@
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11495,7 +12063,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B5)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
         <v>1</v>
       </c>
@@ -11519,7 +12087,7 @@
       <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11527,7 +12095,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B6)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
         <v>1</v>
       </c>
@@ -11551,7 +12119,7 @@
       <c r="F7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G7" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11559,7 +12127,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B7)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
         <v>1</v>
       </c>
@@ -11583,7 +12151,7 @@
       <c r="F8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="15" t="n">
+      <c r="G8" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11591,7 +12159,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B8)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I8" s="15" t="n">
+      <c r="I8" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
         <v>1</v>
       </c>
@@ -11615,7 +12183,7 @@
       <c r="F9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11623,7 +12191,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B9)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I9" s="15" t="n">
+      <c r="I9" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
         <v>1</v>
       </c>
@@ -11647,7 +12215,7 @@
       <c r="F10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11655,7 +12223,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B10)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
         <v>1</v>
       </c>
@@ -11679,7 +12247,7 @@
       <c r="F11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11687,7 +12255,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B11)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I11" s="15" t="n">
+      <c r="I11" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C11), ISNUMBER(D11), C11&lt;=D11)</f>
         <v>1</v>
       </c>
@@ -11711,7 +12279,7 @@
       <c r="F12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11719,7 +12287,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B12)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I12" s="15" t="n">
+      <c r="I12" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C12), ISNUMBER(D12), C12&lt;=D12)</f>
         <v>1</v>
       </c>
@@ -11743,7 +12311,7 @@
       <c r="F13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11751,7 +12319,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B13)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I13" s="15" t="n">
+      <c r="I13" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C13), ISNUMBER(D13), C13&lt;=D13)</f>
         <v>1</v>
       </c>
@@ -11775,7 +12343,7 @@
       <c r="F14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="15" t="n">
+      <c r="G14" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11783,7 +12351,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B14)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I14" s="15" t="n">
+      <c r="I14" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C14), ISNUMBER(D14), C14&lt;=D14)</f>
         <v>1</v>
       </c>
@@ -11807,7 +12375,7 @@
       <c r="F15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A15) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11815,7 +12383,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B15)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I15" s="15" t="n">
+      <c r="I15" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C15), ISNUMBER(D15), C15&lt;=D15)</f>
         <v>1</v>
       </c>
@@ -11839,7 +12407,7 @@
       <c r="F16" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="15" t="n">
+      <c r="G16" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A16) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11847,7 +12415,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B16)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I16" s="15" t="n">
+      <c r="I16" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C16), ISNUMBER(D16), C16&lt;=D16)</f>
         <v>1</v>
       </c>
@@ -11871,7 +12439,7 @@
       <c r="F17" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="15" t="n">
+      <c r="G17" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A17) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11879,7 +12447,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B17)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I17" s="15" t="n">
+      <c r="I17" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C17), ISNUMBER(D17), C17&lt;=D17)</f>
         <v>1</v>
       </c>
@@ -11903,7 +12471,7 @@
       <c r="F18" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="15" t="n">
+      <c r="G18" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A18) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11911,7 +12479,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B18)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I18" s="15" t="n">
+      <c r="I18" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C18), ISNUMBER(D18), C18&lt;=D18)</f>
         <v>1</v>
       </c>
@@ -11935,7 +12503,7 @@
       <c r="F19" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="15" t="n">
+      <c r="G19" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A19) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11943,7 +12511,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B19)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I19" s="15" t="n">
+      <c r="I19" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C19), ISNUMBER(D19), C19&lt;=D19)</f>
         <v>1</v>
       </c>
@@ -11967,7 +12535,7 @@
       <c r="F20" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="15" t="n">
+      <c r="G20" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A20) &gt; 0</f>
         <v>1</v>
       </c>
@@ -11975,7 +12543,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B20)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I20" s="15" t="n">
+      <c r="I20" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C20), ISNUMBER(D20), C20&lt;=D20)</f>
         <v>1</v>
       </c>
@@ -11999,7 +12567,7 @@
       <c r="F21" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="15" t="n">
+      <c r="G21" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A21) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12007,7 +12575,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B21)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I21" s="15" t="n">
+      <c r="I21" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C21), ISNUMBER(D21), C21&lt;=D21)</f>
         <v>1</v>
       </c>
@@ -12031,7 +12599,7 @@
       <c r="F22" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="15" t="n">
+      <c r="G22" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A22) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12039,7 +12607,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B22)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I22" s="15" t="n">
+      <c r="I22" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C22), ISNUMBER(D22), C22&lt;=D22)</f>
         <v>1</v>
       </c>
@@ -12063,7 +12631,7 @@
       <c r="F23" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="15" t="n">
+      <c r="G23" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A23) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12071,7 +12639,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B23)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I23" s="15" t="n">
+      <c r="I23" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C23), ISNUMBER(D23), C23&lt;=D23)</f>
         <v>1</v>
       </c>
@@ -12095,7 +12663,7 @@
       <c r="F24" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="15" t="n">
+      <c r="G24" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A24) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12103,7 +12671,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B24)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I24" s="15" t="n">
+      <c r="I24" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C24), ISNUMBER(D24), C24&lt;=D24)</f>
         <v>1</v>
       </c>
@@ -12127,7 +12695,7 @@
       <c r="F25" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="15" t="n">
+      <c r="G25" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A25) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12135,7 +12703,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B25)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I25" s="15" t="n">
+      <c r="I25" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C25), ISNUMBER(D25), C25&lt;=D25)</f>
         <v>1</v>
       </c>
@@ -12159,7 +12727,7 @@
       <c r="F26" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G26" s="15" t="n">
+      <c r="G26" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A26) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12167,7 +12735,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B26)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I26" s="15" t="n">
+      <c r="I26" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C26), ISNUMBER(D26), C26&lt;=D26)</f>
         <v>1</v>
       </c>
@@ -12191,7 +12759,7 @@
       <c r="F27" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="15" t="n">
+      <c r="G27" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A27) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12199,7 +12767,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B27)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I27" s="15" t="n">
+      <c r="I27" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C27), ISNUMBER(D27), C27&lt;=D27)</f>
         <v>1</v>
       </c>
@@ -12223,7 +12791,7 @@
       <c r="F28" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="15" t="n">
+      <c r="G28" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A28) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12231,7 +12799,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B28)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I28" s="15" t="n">
+      <c r="I28" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C28), ISNUMBER(D28), C28&lt;=D28)</f>
         <v>1</v>
       </c>
@@ -12255,15 +12823,15 @@
       <c r="F29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A29) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H29" s="15" t="n">
+      <c r="H29" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B29)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I29" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C29), ISNUMBER(D29), C29&lt;=D29)</f>
         <v>1</v>
       </c>
@@ -12287,15 +12855,15 @@
       <c r="F30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="15" t="n">
+      <c r="G30" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A30) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H30" s="15" t="n">
+      <c r="H30" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B30)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I30" s="15" t="n">
+      <c r="I30" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C30), ISNUMBER(D30), C30&lt;=D30)</f>
         <v>1</v>
       </c>
@@ -12319,15 +12887,15 @@
       <c r="F31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="15" t="n">
+      <c r="G31" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A31) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H31" s="15" t="n">
+      <c r="H31" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B31)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I31" s="15" t="n">
+      <c r="I31" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C31), ISNUMBER(D31), C31&lt;=D31)</f>
         <v>1</v>
       </c>
@@ -12351,15 +12919,15 @@
       <c r="F32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="15" t="n">
+      <c r="G32" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A32) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H32" s="15" t="n">
+      <c r="H32" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B32)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I32" s="15" t="n">
+      <c r="I32" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C32), ISNUMBER(D32), C32&lt;=D32)</f>
         <v>1</v>
       </c>
@@ -12383,15 +12951,15 @@
       <c r="F33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="15" t="n">
+      <c r="G33" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A33) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H33" s="15" t="n">
+      <c r="H33" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B33)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I33" s="15" t="n">
+      <c r="I33" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C33), ISNUMBER(D33), C33&lt;=D33)</f>
         <v>1</v>
       </c>
@@ -12415,15 +12983,15 @@
       <c r="F34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G34" s="15" t="n">
+      <c r="G34" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A34) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H34" s="15" t="n">
+      <c r="H34" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B34)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I34" s="15" t="n">
+      <c r="I34" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C34), ISNUMBER(D34), C34&lt;=D34)</f>
         <v>1</v>
       </c>
@@ -12447,15 +13015,15 @@
       <c r="F35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="15" t="n">
+      <c r="G35" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A35) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H35" s="15" t="n">
+      <c r="H35" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B35)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I35" s="15" t="n">
+      <c r="I35" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C35), ISNUMBER(D35), C35&lt;=D35)</f>
         <v>1</v>
       </c>
@@ -12479,15 +13047,15 @@
       <c r="F36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="15" t="n">
+      <c r="G36" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A36) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H36" s="15" t="n">
+      <c r="H36" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B36)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I36" s="15" t="n">
+      <c r="I36" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C36), ISNUMBER(D36), C36&lt;=D36)</f>
         <v>1</v>
       </c>
@@ -12511,15 +13079,15 @@
       <c r="F37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="15" t="n">
+      <c r="G37" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A37) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H37" s="15" t="n">
+      <c r="H37" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B37)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I37" s="15" t="n">
+      <c r="I37" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C37), ISNUMBER(D37), C37&lt;=D37)</f>
         <v>1</v>
       </c>
@@ -12543,15 +13111,15 @@
       <c r="F38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="15" t="n">
+      <c r="G38" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A38) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H38" s="15" t="n">
+      <c r="H38" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B38)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I38" s="15" t="n">
+      <c r="I38" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C38), ISNUMBER(D38), C38&lt;=D38)</f>
         <v>1</v>
       </c>
@@ -12575,15 +13143,15 @@
       <c r="F39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="15" t="n">
+      <c r="G39" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A39) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H39" s="15" t="n">
+      <c r="H39" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B39)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I39" s="15" t="n">
+      <c r="I39" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C39), ISNUMBER(D39), C39&lt;=D39)</f>
         <v>1</v>
       </c>
@@ -12607,15 +13175,15 @@
       <c r="F40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="15" t="n">
+      <c r="G40" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A40) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H40" s="15" t="n">
+      <c r="H40" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B40)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I40" s="15" t="n">
+      <c r="I40" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C40), ISNUMBER(D40), C40&lt;=D40)</f>
         <v>1</v>
       </c>
@@ -12639,15 +13207,15 @@
       <c r="F41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="15" t="n">
+      <c r="G41" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A41) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H41" s="15" t="n">
+      <c r="H41" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B41)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I41" s="15" t="n">
+      <c r="I41" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C41), ISNUMBER(D41), C41&lt;=D41)</f>
         <v>1</v>
       </c>
@@ -12671,15 +13239,15 @@
       <c r="F42" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G42" s="15" t="n">
+      <c r="G42" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A42) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H42" s="15" t="n">
+      <c r="H42" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B42)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I42" s="15" t="n">
+      <c r="I42" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C42), ISNUMBER(D42), C42&lt;=D42)</f>
         <v>1</v>
       </c>
@@ -12703,15 +13271,15 @@
       <c r="F43" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="15" t="n">
+      <c r="G43" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A43) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H43" s="15" t="n">
+      <c r="H43" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B43)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I43" s="15" t="n">
+      <c r="I43" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C43), ISNUMBER(D43), C43&lt;=D43)</f>
         <v>1</v>
       </c>
@@ -12735,15 +13303,15 @@
       <c r="F44" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G44" s="15" t="n">
+      <c r="G44" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A44) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H44" s="15" t="n">
+      <c r="H44" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B44)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I44" s="15" t="n">
+      <c r="I44" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C44), ISNUMBER(D44), C44&lt;=D44)</f>
         <v>1</v>
       </c>
@@ -12767,15 +13335,15 @@
       <c r="F45" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="15" t="n">
+      <c r="G45" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A45) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H45" s="15" t="n">
+      <c r="H45" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B45)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I45" s="15" t="n">
+      <c r="I45" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C45), ISNUMBER(D45), C45&lt;=D45)</f>
         <v>1</v>
       </c>
@@ -12799,15 +13367,15 @@
       <c r="F46" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G46" s="15" t="n">
+      <c r="G46" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A46) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H46" s="15" t="n">
+      <c r="H46" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B46)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I46" s="15" t="n">
+      <c r="I46" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C46), ISNUMBER(D46), C46&lt;=D46)</f>
         <v>1</v>
       </c>
@@ -12831,15 +13399,15 @@
       <c r="F47" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G47" s="15" t="n">
+      <c r="G47" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A47) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H47" s="15" t="n">
+      <c r="H47" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B47)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I47" s="15" t="n">
+      <c r="I47" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C47), ISNUMBER(D47), C47&lt;=D47)</f>
         <v>1</v>
       </c>
@@ -12863,15 +13431,15 @@
       <c r="F48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="15" t="n">
+      <c r="G48" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A48) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H48" s="15" t="n">
+      <c r="H48" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B48)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I48" s="15" t="n">
+      <c r="I48" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C48), ISNUMBER(D48), C48&lt;=D48)</f>
         <v>1</v>
       </c>
@@ -12895,15 +13463,15 @@
       <c r="F49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="15" t="n">
+      <c r="G49" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A49) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H49" s="15" t="n">
+      <c r="H49" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B49)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I49" s="15" t="n">
+      <c r="I49" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C49), ISNUMBER(D49), C49&lt;=D49)</f>
         <v>1</v>
       </c>
@@ -12927,15 +13495,15 @@
       <c r="F50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="15" t="n">
+      <c r="G50" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A50) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H50" s="15" t="n">
+      <c r="H50" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B50)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I50" s="15" t="n">
+      <c r="I50" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C50), ISNUMBER(D50), C50&lt;=D50)</f>
         <v>1</v>
       </c>
@@ -12959,15 +13527,15 @@
       <c r="F51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G51" s="15" t="n">
+      <c r="G51" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A51) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H51" s="15" t="n">
+      <c r="H51" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B51)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I51" s="15" t="n">
+      <c r="I51" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C51), ISNUMBER(D51), C51&lt;=D51)</f>
         <v>1</v>
       </c>
@@ -12991,15 +13559,15 @@
       <c r="F52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G52" s="15" t="n">
+      <c r="G52" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A52) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H52" s="15" t="n">
+      <c r="H52" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B52)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I52" s="15" t="n">
+      <c r="I52" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C52), ISNUMBER(D52), C52&lt;=D52)</f>
         <v>1</v>
       </c>
@@ -13023,15 +13591,15 @@
       <c r="F53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G53" s="15" t="n">
+      <c r="G53" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A53) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H53" s="15" t="n">
+      <c r="H53" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B53)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I53" s="15" t="n">
+      <c r="I53" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C53), ISNUMBER(D53), C53&lt;=D53)</f>
         <v>1</v>
       </c>
@@ -13055,15 +13623,15 @@
       <c r="F54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G54" s="15" t="n">
+      <c r="G54" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A54) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H54" s="15" t="n">
+      <c r="H54" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B54)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I54" s="15" t="n">
+      <c r="I54" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C54), ISNUMBER(D54), C54&lt;=D54)</f>
         <v>1</v>
       </c>
@@ -13087,15 +13655,15 @@
       <c r="F55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G55" s="15" t="n">
+      <c r="G55" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A55) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H55" s="15" t="n">
+      <c r="H55" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B55)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I55" s="15" t="n">
+      <c r="I55" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C55), ISNUMBER(D55), C55&lt;=D55)</f>
         <v>1</v>
       </c>
@@ -13119,15 +13687,15 @@
       <c r="F56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G56" s="15" t="n">
+      <c r="G56" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A56) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H56" s="15" t="n">
+      <c r="H56" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$903,B56)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I56" s="15" t="n">
+      <c r="I56" s="15" t="b">
         <f aca="false">AND(ISNUMBER(C56), ISNUMBER(D56), C56&lt;=D56)</f>
         <v>1</v>
       </c>
@@ -13230,7 +13798,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -13625,7 +14193,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -13730,11 +14298,11 @@
       <c r="E4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987,A4)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
         <v>1</v>
       </c>
@@ -13756,11 +14324,11 @@
       <c r="E5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987,A5)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
         <v>1</v>
       </c>
@@ -13782,11 +14350,11 @@
       <c r="E6" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987,A6)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
         <v>1</v>
       </c>
@@ -13808,11 +14376,11 @@
       <c r="E7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987,A7)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
         <v>1</v>
       </c>
@@ -13834,11 +14402,11 @@
       <c r="E8" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987,A8)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
         <v>1</v>
       </c>
@@ -13860,11 +14428,11 @@
       <c r="E9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987,A9)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
         <v>1</v>
       </c>
@@ -13886,11 +14454,11 @@
       <c r="E10" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987,A10)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
         <v>1</v>
       </c>
@@ -14271,7 +14839,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -14666,7 +15234,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -14936,7 +15504,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -14987,7 +15555,7 @@
       <c r="C3" s="24" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15002,7 +15570,7 @@
       <c r="C4" s="21" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15017,7 +15585,7 @@
       <c r="C5" s="21" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15032,7 +15600,7 @@
       <c r="C6" s="21" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15047,7 +15615,7 @@
       <c r="C7" s="21" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15062,7 +15630,7 @@
       <c r="C8" s="21" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15077,7 +15645,7 @@
       <c r="C9" s="21" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15092,7 +15660,7 @@
       <c r="C10" s="6" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15107,7 +15675,7 @@
       <c r="C11" s="6" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15122,7 +15690,7 @@
       <c r="C12" s="6" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -15137,7 +15705,7 @@
       <c r="C13" s="6" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -5864,7 +5864,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -6118,8 +6118,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6171,7 +6171,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.6</v>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -5924,7 +5924,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5983,7 +5983,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>157</v>
@@ -6021,8 +6022,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6080,7 +6081,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>160</v>
@@ -6118,8 +6120,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="182">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -6022,7 +6022,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -6204,16 +6204,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6230,25 +6230,13 @@
         <v>151</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,28 +6249,14 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>46053</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="F2" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="G2" s="7" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -331,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="183">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -877,6 +878,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -6207,7 +6211,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6419,6 +6423,65 @@
       </c>
       <c r="J2" s="7" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2192,7 +2192,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -14923,7 +14923,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="185">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -773,10 +773,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -1615,10 +1621,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1626,7 +1632,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1639,8 +1646,11 @@
       <c r="C1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="10" t="s">
         <v>147</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,9 +1661,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="27" t="n">
+        <v>149</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="27" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>46053</v>
       </c>
@@ -1692,13 +1705,13 @@
         <v>145</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>18</v>
@@ -1707,19 +1720,19 @@
         <v>19</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,10 +1753,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1753,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1787,16 +1800,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>18</v>
@@ -1805,19 +1818,19 @@
         <v>19</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,10 +1851,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1851,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1885,16 +1898,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>18</v>
@@ -1903,13 +1916,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1971,25 +1984,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,7 +2016,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.9</v>
@@ -2042,25 +2055,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,10 +2087,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -2115,34 +2128,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,16 +2169,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -2192,7 +2205,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2204,19 +2217,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9587,8 +9600,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9872,6 +9885,14 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987,A11)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
         <v>1</v>
       </c>
     </row>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -330,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="186">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -785,6 +786,9 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -794,6 +798,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -801,12 +811,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -1031,7 +1035,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1145,10 +1149,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1687,31 +1687,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>18</v>
@@ -1719,53 +1718,36 @@
       <c r="F1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>45658</v>
+        <f aca="false">misc!A2+1</f>
+        <v>45657</v>
       </c>
       <c r="F2" s="12" t="n">
         <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="29" t="b">
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="29" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -1786,86 +1768,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="7" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1884,74 +1822,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1970,16 +1875,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,41 +1892,11 @@
         <v>165</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2041,59 +1916,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2112,79 +1969,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="D2" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2203,46 +2022,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -9600,7 +9474,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -774,7 +774,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -783,7 +783,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
+    <t xml:space="preserve">ubday</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -1623,7 +1623,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2097,7 +2097,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
+++ b/ampl-data-input-excel/09-experts16-tastks106/09-experts16-tastks106.xlsx
@@ -783,7 +783,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">ubday</t>
+    <t xml:space="preserve">solid-ubday</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
